--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navee\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BB1C92-0796-4293-B538-13D20B486270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF351B0-DCA4-41A6-B0EC-B22198965316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>iteration 1, x2 = 2.500000 and f(x2)= -5.875000</t>
   </si>
@@ -106,13 +106,166 @@
   </si>
   <si>
     <t>conclusion: newton rapshon method is the best one among all these as it gives the answer in only 3 steps.</t>
+  </si>
+  <si>
+    <t>Question 2 (2*x**3-9.5*x+7.5)</t>
+  </si>
+  <si>
+    <t>guess1=0 , guess2 = 1</t>
+  </si>
+  <si>
+    <t>iteration 1, x2 = 0.500000 and f(x2)= 3.000000</t>
+  </si>
+  <si>
+    <t>iteration 2, x2 = 0.750000 and f(x2)= 1.218750</t>
+  </si>
+  <si>
+    <t>iteration 3, x2 = 0.875000 and f(x2)= 0.527344</t>
+  </si>
+  <si>
+    <t>iteration 4, x2 = 0.937500 and f(x2)= 0.241699</t>
+  </si>
+  <si>
+    <t>iteration 5, x2 = 0.968750 and f(x2)= 0.115173</t>
+  </si>
+  <si>
+    <t>iteration 6, x2 = 0.984375 and f(x2)= 0.056145</t>
+  </si>
+  <si>
+    <t>iteration 7, x2 = 0.992188 and f(x2)= 0.027709</t>
+  </si>
+  <si>
+    <t>iteration 8, x2 = 0.996094 and f(x2)= 0.013763</t>
+  </si>
+  <si>
+    <t>iteration 9, x2 = 0.998047 and f(x2)= 0.006859</t>
+  </si>
+  <si>
+    <t>iteration 10, x2 = 0.999023 and f(x2)= 0.003424</t>
+  </si>
+  <si>
+    <t>iteration 11, x2 = 0.999512 and f(x2)= 0.001710</t>
+  </si>
+  <si>
+    <t>iteration 12, x2 = 0.999756 and f(x2)= 0.000855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">root is :0.99975586 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newton rapshon method </t>
+  </si>
+  <si>
+    <t>guess = 0.5</t>
+  </si>
+  <si>
+    <t>the root is 1.000 at 4 iterations.</t>
+  </si>
+  <si>
+    <t>Regula falsi method</t>
+  </si>
+  <si>
+    <t>No roots exists within the given interval</t>
+  </si>
+  <si>
+    <t>secant method</t>
+  </si>
+  <si>
+    <t>Root = 1.000000 at 0 iterations</t>
+  </si>
+  <si>
+    <t>conclusion: Secant method is best for such interval as it gave the answer in the very first iteraion of the loop as compared to other methods.</t>
+  </si>
+  <si>
+    <t>Question 3 (x**2 - sin(x)**2 - 4*x + 1)</t>
+  </si>
+  <si>
+    <t>guess1 = 1 , guess2 = 1</t>
+  </si>
+  <si>
+    <t>iteration 1, x2 = 0.500000 and f(x2)= -0.979849</t>
+  </si>
+  <si>
+    <t>iteration 2, x2 = 0.250000 and f(x2)= 0.001291</t>
+  </si>
+  <si>
+    <t>iteration 3, x2 = 0.375000 and f(x2)= -0.493531</t>
+  </si>
+  <si>
+    <t>iteration 4, x2 = 0.312500 and f(x2)= -0.246862</t>
+  </si>
+  <si>
+    <t>iteration 5, x2 = 0.281250 and f(x2)= -0.122936</t>
+  </si>
+  <si>
+    <t>iteration 6, x2 = 0.265625 and f(x2)= -0.060856</t>
+  </si>
+  <si>
+    <t>iteration 7, x2 = 0.257812 and f(x2)= -0.029790</t>
+  </si>
+  <si>
+    <t>iteration 8, x2 = 0.253906 and f(x2)= -0.014251</t>
+  </si>
+  <si>
+    <t>iteration 9, x2 = 0.251953 and f(x2)= -0.006481</t>
+  </si>
+  <si>
+    <t>iteration 10, x2 = 0.250977 and f(x2)= -0.002595</t>
+  </si>
+  <si>
+    <t>iteration 11, x2 = 0.250488 and f(x2)= -0.000652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">root is :0.25048828 </t>
+  </si>
+  <si>
+    <t>the root is 0.250 at 2 iterations.</t>
+  </si>
+  <si>
+    <t>The root = 0.250324 at 4 false position</t>
+  </si>
+  <si>
+    <t>Secant method</t>
+  </si>
+  <si>
+    <t>Root = 0.250324 at 4 iterations</t>
+  </si>
+  <si>
+    <t>conclusion: Newton rapshon method performs better than any other method for this specific question with these guesses.</t>
+  </si>
+  <si>
+    <t>Question 4 (2*x**2 - 5*x + 3)</t>
+  </si>
+  <si>
+    <t>guess1 = -2 , guess2 = 2</t>
+  </si>
+  <si>
+    <t>given guess values do not bracket the root</t>
+  </si>
+  <si>
+    <t>newton raphson method</t>
+  </si>
+  <si>
+    <t>guess = 0</t>
+  </si>
+  <si>
+    <t>the root is 1.000 at 5 iterations.</t>
+  </si>
+  <si>
+    <t>Root = 1.500000 at 8 iterations</t>
+  </si>
+  <si>
+    <t>conclusion: As we only get +ve values for the given guess so we</t>
+  </si>
+  <si>
+    <t>consider the answer given by secant method as the best solution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +294,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,7 +311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -238,20 +399,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -262,12 +453,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -277,16 +462,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:O19"/>
+  <dimension ref="E2:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,269 +828,842 @@
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="5:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="3"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="13" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E7" s="7" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="5:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="12" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="14" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="7" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="5:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="2" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="6"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="14" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="17"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E19" s="21" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="21" spans="5:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F21" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="5:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="5:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="5:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="27"/>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="5:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="30"/>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="5:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="15"/>
+    </row>
+    <row r="40" spans="5:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F40" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="5:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E43" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="5:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="30"/>
+    </row>
+    <row r="46" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="5:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="27"/>
+    </row>
+    <row r="49" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="5:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="36"/>
+    </row>
+    <row r="58" spans="5:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="F58" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+    </row>
+    <row r="59" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="5:17" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E60" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="26"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="30"/>
+    </row>
+    <row r="61" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E61" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="5:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E63" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" s="38"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="27"/>
+    </row>
+    <row r="64" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="41"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64" s="20"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H65" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="7"/>
+    </row>
+    <row r="66" spans="8:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H66" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="27"/>
+    </row>
+    <row r="67" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67" s="20"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H68" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="32">
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="H63:M63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="E38:U38"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:N23"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="E19:O19"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:K8"/>
-    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
